--- a/INTLINE/data/142/STANOR/old/09183 Gross fixed capital formation by quarter industry and contents(Main industries).xlsx
+++ b/INTLINE/data/142/STANOR/old/09183 Gross fixed capital formation by quarter industry and contents(Main industries).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>09183: Gross fixed capital formation, by quarter, industry and contents</x:t>
   </x:si>
@@ -550,19 +550,22 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Unadjusted figures from the base year (final annual accounts) are preliminary.</x:t>
   </x:si>
   <x:si>
     <x:t>In the time series in volume, the figures from the base year and onwards are fixed price figures while data prior to the base year are chained volume figures. This implies that additivity in volume is lost prior to the base year.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current prices (NOK million):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211119 08:00</x:t>
+    <x:t>20220216 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1009,14 +1012,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B223"/>
+  <x:dimension ref="A1:B224"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.300625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -2415,7 +2417,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="B177" s="3" t="n">
-        <x:v>6479</x:v>
+        <x:v>6471</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:2">
@@ -2423,7 +2425,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="B178" s="3" t="n">
-        <x:v>6984</x:v>
+        <x:v>6931</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:2">
@@ -2431,12 +2433,15 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="B179" s="3" t="n">
-        <x:v>6585</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="181" spans="1:2">
-      <x:c r="A181" s="4" t="s">
+        <x:v>6547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" spans="1:2">
+      <x:c r="A180" s="2" t="s">
         <x:v>178</x:v>
+      </x:c>
+      <x:c r="B180" s="3" t="n">
+        <x:v>7166</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:2">
@@ -2444,8 +2449,8 @@
         <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="184" spans="1:2">
-      <x:c r="A184" s="0" t="s">
+    <x:row r="183" spans="1:2">
+      <x:c r="A183" s="4" t="s">
         <x:v>180</x:v>
       </x:c>
     </x:row>
@@ -2459,8 +2464,8 @@
         <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="188" spans="1:2">
-      <x:c r="A188" s="0" t="s">
+    <x:row r="187" spans="1:2">
+      <x:c r="A187" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
     </x:row>
@@ -2469,19 +2474,19 @@
         <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="191" spans="1:2">
-      <x:c r="A191" s="0" t="s">
+    <x:row r="190" spans="1:2">
+      <x:c r="A190" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:2">
       <x:c r="A192" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:2">
       <x:c r="A193" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:2">
@@ -2494,24 +2499,24 @@
         <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="199" spans="1:2">
-      <x:c r="A199" s="0" t="s">
+    <x:row r="196" spans="1:2">
+      <x:c r="A196" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="201" spans="1:2">
-      <x:c r="A201" s="0" t="s">
+    <x:row r="200" spans="1:2">
+      <x:c r="A200" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:2">
       <x:c r="A202" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:2">
       <x:c r="A203" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:2">
@@ -2521,41 +2526,41 @@
     </x:row>
     <x:row r="205" spans="1:2">
       <x:c r="A205" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:2">
       <x:c r="A206" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="208" spans="1:2">
-      <x:c r="A208" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:2">
+      <x:c r="A207" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:2">
       <x:c r="A209" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:2">
       <x:c r="A210" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="213" spans="1:2">
-      <x:c r="A213" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" spans="1:2">
+      <x:c r="A211" s="0" t="s">
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:2">
       <x:c r="A214" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="219" spans="1:2">
-      <x:c r="A219" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" spans="1:2">
+      <x:c r="A215" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
     </x:row>
@@ -2564,8 +2569,8 @@
         <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="222" spans="1:2">
-      <x:c r="A222" s="0" t="s">
+    <x:row r="221" spans="1:2">
+      <x:c r="A221" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
     </x:row>
@@ -2574,7 +2579,16 @@
         <x:v>200</x:v>
       </x:c>
     </x:row>
+    <x:row r="224" spans="1:2">
+      <x:c r="A224" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A182:B182"/>
+    <x:mergeCell ref="A183:B183"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
